--- a/Data_Ryan/Interest Rates Data.xlsx
+++ b/Data_Ryan/Interest Rates Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibf_pmp1\Desktop\Fundamental Analysts 2025_26\MGR\Final Presentation 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanyo/Developer/PMP Github/PMP_December_8/Data_Ryan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_8BB652DCFEB852F954ED9AE614CB0FCE8C8C69BC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2334114-5B73-AF4B-826D-1F0C3D2DC0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,17 +401,18 @@
   <dimension ref="A1:K336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="L22:M22"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>35825</v>
       </c>
@@ -464,7 +465,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>35853</v>
       </c>
@@ -490,7 +491,7 @@
         <v>98.332300000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>35885</v>
       </c>
@@ -516,7 +517,7 @@
         <v>98.461299999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>35915</v>
       </c>
@@ -542,7 +543,7 @@
         <v>98.491</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>35944</v>
       </c>
@@ -568,7 +569,7 @@
         <v>98.545599999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>35976</v>
       </c>
@@ -594,7 +595,7 @@
         <v>98.436499999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>36007</v>
       </c>
@@ -620,7 +621,7 @@
         <v>98.466200000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>36038</v>
       </c>
@@ -646,7 +647,7 @@
         <v>98.476200000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>36068</v>
       </c>
@@ -672,7 +673,7 @@
         <v>98.555499999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>36098</v>
       </c>
@@ -698,7 +699,7 @@
         <v>98.501000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>36129</v>
       </c>
@@ -724,7 +725,7 @@
         <v>98.491100000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>36160</v>
       </c>
@@ -751,7 +752,7 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>36189</v>
       </c>
@@ -778,7 +779,7 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>36217</v>
       </c>
@@ -805,7 +806,7 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>36250</v>
       </c>
@@ -832,7 +833,7 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>36280</v>
       </c>
@@ -859,7 +860,7 @@
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>36311</v>
       </c>
@@ -886,7 +887,7 @@
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>36341</v>
       </c>
@@ -913,7 +914,7 @@
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>36371</v>
       </c>
@@ -940,7 +941,7 @@
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>36403</v>
       </c>
@@ -967,7 +968,7 @@
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>36433</v>
       </c>
@@ -994,7 +995,7 @@
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>36462</v>
       </c>
@@ -1021,7 +1022,7 @@
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>36494</v>
       </c>
@@ -1048,7 +1049,7 @@
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>36525</v>
       </c>
@@ -1075,7 +1076,7 @@
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>36556</v>
       </c>
@@ -1102,7 +1103,7 @@
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>36585</v>
       </c>
@@ -1129,7 +1130,7 @@
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>36616</v>
       </c>
@@ -1156,7 +1157,7 @@
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>36644</v>
       </c>
@@ -1183,7 +1184,7 @@
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>36677</v>
       </c>
@@ -1210,7 +1211,7 @@
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>36707</v>
       </c>
@@ -1237,7 +1238,7 @@
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>36738</v>
       </c>
@@ -1264,7 +1265,7 @@
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>36769</v>
       </c>
@@ -1291,7 +1292,7 @@
       </c>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>36798</v>
       </c>
@@ -1318,7 +1319,7 @@
       </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>36830</v>
       </c>
@@ -1345,7 +1346,7 @@
       </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>36860</v>
       </c>
@@ -1372,7 +1373,7 @@
       </c>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36889</v>
       </c>
@@ -1399,7 +1400,7 @@
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36922</v>
       </c>
@@ -1426,7 +1427,7 @@
       </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>36950</v>
       </c>
@@ -1453,7 +1454,7 @@
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>36980</v>
       </c>
@@ -1480,7 +1481,7 @@
       </c>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>37011</v>
       </c>
@@ -1507,7 +1508,7 @@
       </c>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>37042</v>
       </c>
@@ -1534,7 +1535,7 @@
       </c>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>37071</v>
       </c>
@@ -1561,7 +1562,7 @@
       </c>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>37103</v>
       </c>
@@ -1588,7 +1589,7 @@
       </c>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>37134</v>
       </c>
@@ -1615,7 +1616,7 @@
       </c>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>37162</v>
       </c>
@@ -1642,7 +1643,7 @@
       </c>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>37195</v>
       </c>
@@ -1669,7 +1670,7 @@
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>37225</v>
       </c>
@@ -1696,7 +1697,7 @@
       </c>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>37256</v>
       </c>
@@ -1723,7 +1724,7 @@
       </c>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>37287</v>
       </c>
@@ -1750,7 +1751,7 @@
       </c>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>37315</v>
       </c>
@@ -1777,7 +1778,7 @@
       </c>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>37344</v>
       </c>
@@ -1804,7 +1805,7 @@
       </c>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>37376</v>
       </c>
@@ -1831,7 +1832,7 @@
       </c>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>37407</v>
       </c>
@@ -1858,7 +1859,7 @@
       </c>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>37435</v>
       </c>
@@ -1885,7 +1886,7 @@
       </c>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>37468</v>
       </c>
@@ -1912,7 +1913,7 @@
       </c>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>37498</v>
       </c>
@@ -1939,7 +1940,7 @@
       </c>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>37529</v>
       </c>
@@ -1966,7 +1967,7 @@
       </c>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>37560</v>
       </c>
@@ -1993,7 +1994,7 @@
       </c>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>37589</v>
       </c>
@@ -2020,7 +2021,7 @@
       </c>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>37621</v>
       </c>
@@ -2047,7 +2048,7 @@
       </c>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>37652</v>
       </c>
@@ -2074,7 +2075,7 @@
       </c>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>37680</v>
       </c>
@@ -2101,7 +2102,7 @@
       </c>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>37711</v>
       </c>
@@ -2128,7 +2129,7 @@
       </c>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>37741</v>
       </c>
@@ -2155,7 +2156,7 @@
       </c>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>37771</v>
       </c>
@@ -2182,7 +2183,7 @@
       </c>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>37802</v>
       </c>
@@ -2209,7 +2210,7 @@
       </c>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>37833</v>
       </c>
@@ -2236,7 +2237,7 @@
       </c>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>37862</v>
       </c>
@@ -2263,7 +2264,7 @@
       </c>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>37894</v>
       </c>
@@ -2290,7 +2291,7 @@
       </c>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>37925</v>
       </c>
@@ -2317,7 +2318,7 @@
       </c>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>37953</v>
       </c>
@@ -2344,7 +2345,7 @@
       </c>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>37986</v>
       </c>
@@ -2371,7 +2372,7 @@
       </c>
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>38016</v>
       </c>
@@ -2398,7 +2399,7 @@
       </c>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>38044</v>
       </c>
@@ -2425,7 +2426,7 @@
       </c>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>38077</v>
       </c>
@@ -2452,7 +2453,7 @@
       </c>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>38107</v>
       </c>
@@ -2479,7 +2480,7 @@
       </c>
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>38138</v>
       </c>
@@ -2506,7 +2507,7 @@
       </c>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>38168</v>
       </c>
@@ -2533,7 +2534,7 @@
       </c>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>38198</v>
       </c>
@@ -2560,7 +2561,7 @@
       </c>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>38230</v>
       </c>
@@ -2587,7 +2588,7 @@
       </c>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>38260</v>
       </c>
@@ -2614,7 +2615,7 @@
       </c>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>38289</v>
       </c>
@@ -2641,7 +2642,7 @@
       </c>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>38321</v>
       </c>
@@ -2668,7 +2669,7 @@
       </c>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>38352</v>
       </c>
@@ -2695,7 +2696,7 @@
       </c>
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>38383</v>
       </c>
@@ -2722,7 +2723,7 @@
       </c>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>38411</v>
       </c>
@@ -2749,7 +2750,7 @@
       </c>
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>38442</v>
       </c>
@@ -2776,7 +2777,7 @@
       </c>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>38471</v>
       </c>
@@ -2803,7 +2804,7 @@
       </c>
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>38503</v>
       </c>
@@ -2830,7 +2831,7 @@
       </c>
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>38533</v>
       </c>
@@ -2857,7 +2858,7 @@
       </c>
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>38562</v>
       </c>
@@ -2884,7 +2885,7 @@
       </c>
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>38595</v>
       </c>
@@ -2911,7 +2912,7 @@
       </c>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>38625</v>
       </c>
@@ -2938,7 +2939,7 @@
       </c>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>38656</v>
       </c>
@@ -2965,7 +2966,7 @@
       </c>
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>38686</v>
       </c>
@@ -2992,7 +2993,7 @@
       </c>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>38716</v>
       </c>
@@ -3019,7 +3020,7 @@
       </c>
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>38748</v>
       </c>
@@ -3046,7 +3047,7 @@
       </c>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>38776</v>
       </c>
@@ -3073,7 +3074,7 @@
       </c>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>38807</v>
       </c>
@@ -3100,7 +3101,7 @@
       </c>
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>38835</v>
       </c>
@@ -3127,7 +3128,7 @@
       </c>
       <c r="J101" s="2"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>38868</v>
       </c>
@@ -3154,7 +3155,7 @@
       </c>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>38898</v>
       </c>
@@ -3181,7 +3182,7 @@
       </c>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>38929</v>
       </c>
@@ -3208,7 +3209,7 @@
       </c>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>38960</v>
       </c>
@@ -3235,7 +3236,7 @@
       </c>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>38989</v>
       </c>
@@ -3262,7 +3263,7 @@
       </c>
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>39021</v>
       </c>
@@ -3289,7 +3290,7 @@
       </c>
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>39051</v>
       </c>
@@ -3316,7 +3317,7 @@
       </c>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>39080</v>
       </c>
@@ -3343,7 +3344,7 @@
       </c>
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>39113</v>
       </c>
@@ -3370,7 +3371,7 @@
       </c>
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>39141</v>
       </c>
@@ -3397,7 +3398,7 @@
       </c>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>39171</v>
       </c>
@@ -3424,7 +3425,7 @@
       </c>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>39202</v>
       </c>
@@ -3451,7 +3452,7 @@
       </c>
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>39233</v>
       </c>
@@ -3478,7 +3479,7 @@
       </c>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>39262</v>
       </c>
@@ -3505,7 +3506,7 @@
       </c>
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>39294</v>
       </c>
@@ -3532,7 +3533,7 @@
       </c>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>39325</v>
       </c>
@@ -3559,7 +3560,7 @@
       </c>
       <c r="J117" s="2"/>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>39353</v>
       </c>
@@ -3586,7 +3587,7 @@
       </c>
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>39386</v>
       </c>
@@ -3613,7 +3614,7 @@
       </c>
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>39416</v>
       </c>
@@ -3640,7 +3641,7 @@
       </c>
       <c r="J120" s="2"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>39447</v>
       </c>
@@ -3667,7 +3668,7 @@
       </c>
       <c r="J121" s="2"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>39478</v>
       </c>
@@ -3694,7 +3695,7 @@
       </c>
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>39507</v>
       </c>
@@ -3721,7 +3722,7 @@
       </c>
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>39538</v>
       </c>
@@ -3748,7 +3749,7 @@
       </c>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>39568</v>
       </c>
@@ -3775,7 +3776,7 @@
       </c>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>39598</v>
       </c>
@@ -3802,7 +3803,7 @@
       </c>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>39629</v>
       </c>
@@ -3829,7 +3830,7 @@
       </c>
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>39660</v>
       </c>
@@ -3856,7 +3857,7 @@
       </c>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>39689</v>
       </c>
@@ -3883,7 +3884,7 @@
       </c>
       <c r="J129" s="2"/>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>39721</v>
       </c>
@@ -3910,7 +3911,7 @@
       </c>
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>39752</v>
       </c>
@@ -3937,7 +3938,7 @@
       </c>
       <c r="J131" s="2"/>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>39780</v>
       </c>
@@ -3964,7 +3965,7 @@
       </c>
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>39813</v>
       </c>
@@ -3991,7 +3992,7 @@
       </c>
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>39843</v>
       </c>
@@ -4018,7 +4019,7 @@
       </c>
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>39871</v>
       </c>
@@ -4045,7 +4046,7 @@
       </c>
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>39903</v>
       </c>
@@ -4072,7 +4073,7 @@
       </c>
       <c r="J136" s="2"/>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>39933</v>
       </c>
@@ -4099,7 +4100,7 @@
       </c>
       <c r="J137" s="2"/>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>39962</v>
       </c>
@@ -4126,7 +4127,7 @@
       </c>
       <c r="J138" s="2"/>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>39994</v>
       </c>
@@ -4153,7 +4154,7 @@
       </c>
       <c r="J139" s="2"/>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>40025</v>
       </c>
@@ -4180,7 +4181,7 @@
       </c>
       <c r="J140" s="2"/>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>40056</v>
       </c>
@@ -4207,7 +4208,7 @@
       </c>
       <c r="J141" s="2"/>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>40086</v>
       </c>
@@ -4234,7 +4235,7 @@
       </c>
       <c r="J142" s="2"/>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>40116</v>
       </c>
@@ -4261,7 +4262,7 @@
       </c>
       <c r="J143" s="2"/>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>40147</v>
       </c>
@@ -4288,7 +4289,7 @@
       </c>
       <c r="J144" s="2"/>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>40178</v>
       </c>
@@ -4315,7 +4316,7 @@
       </c>
       <c r="J145" s="2"/>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>40207</v>
       </c>
@@ -4342,7 +4343,7 @@
       </c>
       <c r="J146" s="2"/>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>40235</v>
       </c>
@@ -4369,7 +4370,7 @@
       </c>
       <c r="J147" s="2"/>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>40268</v>
       </c>
@@ -4396,7 +4397,7 @@
       </c>
       <c r="J148" s="2"/>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>40298</v>
       </c>
@@ -4423,7 +4424,7 @@
       </c>
       <c r="J149" s="2"/>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>40329</v>
       </c>
@@ -4450,7 +4451,7 @@
       </c>
       <c r="J150" s="2"/>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>40359</v>
       </c>
@@ -4477,7 +4478,7 @@
       </c>
       <c r="J151" s="2"/>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>40389</v>
       </c>
@@ -4504,7 +4505,7 @@
       </c>
       <c r="J152" s="2"/>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>40421</v>
       </c>
@@ -4531,7 +4532,7 @@
       </c>
       <c r="J153" s="2"/>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>40451</v>
       </c>
@@ -4558,7 +4559,7 @@
       </c>
       <c r="J154" s="2"/>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>40480</v>
       </c>
@@ -4585,7 +4586,7 @@
       </c>
       <c r="J155" s="2"/>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>40512</v>
       </c>
@@ -4612,7 +4613,7 @@
       </c>
       <c r="J156" s="2"/>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>40543</v>
       </c>
@@ -4639,7 +4640,7 @@
       </c>
       <c r="J157" s="2"/>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>40574</v>
       </c>
@@ -4666,7 +4667,7 @@
       </c>
       <c r="J158" s="2"/>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>40602</v>
       </c>
@@ -4693,7 +4694,7 @@
       </c>
       <c r="J159" s="2"/>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>40633</v>
       </c>
@@ -4720,7 +4721,7 @@
       </c>
       <c r="J160" s="2"/>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>40662</v>
       </c>
@@ -4747,7 +4748,7 @@
       </c>
       <c r="J161" s="2"/>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>40694</v>
       </c>
@@ -4774,7 +4775,7 @@
       </c>
       <c r="J162" s="2"/>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>40724</v>
       </c>
@@ -4801,7 +4802,7 @@
       </c>
       <c r="J163" s="2"/>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>40753</v>
       </c>
@@ -4828,7 +4829,7 @@
       </c>
       <c r="J164" s="2"/>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>40786</v>
       </c>
@@ -4855,7 +4856,7 @@
       </c>
       <c r="J165" s="2"/>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>40816</v>
       </c>
@@ -4882,7 +4883,7 @@
       </c>
       <c r="J166" s="2"/>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>40847</v>
       </c>
@@ -4909,7 +4910,7 @@
       </c>
       <c r="J167" s="2"/>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>40877</v>
       </c>
@@ -4936,7 +4937,7 @@
       </c>
       <c r="J168" s="2"/>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>40907</v>
       </c>
@@ -4963,7 +4964,7 @@
       </c>
       <c r="J169" s="2"/>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>40939</v>
       </c>
@@ -4990,7 +4991,7 @@
       </c>
       <c r="J170" s="2"/>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>40968</v>
       </c>
@@ -5017,7 +5018,7 @@
       </c>
       <c r="J171" s="2"/>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>40998</v>
       </c>
@@ -5044,7 +5045,7 @@
       </c>
       <c r="J172" s="2"/>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>41029</v>
       </c>
@@ -5071,7 +5072,7 @@
       </c>
       <c r="J173" s="2"/>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>41060</v>
       </c>
@@ -5098,7 +5099,7 @@
       </c>
       <c r="J174" s="2"/>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>41089</v>
       </c>
@@ -5125,7 +5126,7 @@
       </c>
       <c r="J175" s="2"/>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>41121</v>
       </c>
@@ -5152,7 +5153,7 @@
       </c>
       <c r="J176" s="2"/>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>41152</v>
       </c>
@@ -5179,7 +5180,7 @@
       </c>
       <c r="J177" s="2"/>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>41180</v>
       </c>
@@ -5206,7 +5207,7 @@
       </c>
       <c r="J178" s="2"/>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>41213</v>
       </c>
@@ -5233,7 +5234,7 @@
       </c>
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>41243</v>
       </c>
@@ -5260,7 +5261,7 @@
       </c>
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>41274</v>
       </c>
@@ -5287,7 +5288,7 @@
       </c>
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>41305</v>
       </c>
@@ -5314,7 +5315,7 @@
       </c>
       <c r="J182" s="2"/>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>41333</v>
       </c>
@@ -5341,7 +5342,7 @@
       </c>
       <c r="J183" s="2"/>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>41362</v>
       </c>
@@ -5368,7 +5369,7 @@
       </c>
       <c r="J184" s="2"/>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>41394</v>
       </c>
@@ -5395,7 +5396,7 @@
       </c>
       <c r="J185" s="2"/>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>41425</v>
       </c>
@@ -5422,7 +5423,7 @@
       </c>
       <c r="J186" s="2"/>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>41453</v>
       </c>
@@ -5449,7 +5450,7 @@
       </c>
       <c r="J187" s="2"/>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>41486</v>
       </c>
@@ -5476,7 +5477,7 @@
       </c>
       <c r="J188" s="2"/>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>41516</v>
       </c>
@@ -5503,7 +5504,7 @@
       </c>
       <c r="J189" s="2"/>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>41547</v>
       </c>
@@ -5530,7 +5531,7 @@
       </c>
       <c r="J190" s="2"/>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>41578</v>
       </c>
@@ -5557,7 +5558,7 @@
       </c>
       <c r="J191" s="2"/>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>41607</v>
       </c>
@@ -5584,7 +5585,7 @@
       </c>
       <c r="J192" s="2"/>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>41639</v>
       </c>
@@ -5611,7 +5612,7 @@
       </c>
       <c r="J193" s="2"/>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>41670</v>
       </c>
@@ -5638,7 +5639,7 @@
       </c>
       <c r="J194" s="2"/>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>41698</v>
       </c>
@@ -5665,7 +5666,7 @@
       </c>
       <c r="J195" s="2"/>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>41729</v>
       </c>
@@ -5692,7 +5693,7 @@
       </c>
       <c r="J196" s="2"/>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>41759</v>
       </c>
@@ -5719,7 +5720,7 @@
       </c>
       <c r="J197" s="2"/>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>41789</v>
       </c>
@@ -5746,7 +5747,7 @@
       </c>
       <c r="J198" s="2"/>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>41820</v>
       </c>
@@ -5773,7 +5774,7 @@
       </c>
       <c r="J199" s="2"/>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>41851</v>
       </c>
@@ -5800,7 +5801,7 @@
       </c>
       <c r="J200" s="2"/>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>41880</v>
       </c>
@@ -5827,7 +5828,7 @@
       </c>
       <c r="J201" s="2"/>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>41912</v>
       </c>
@@ -5854,7 +5855,7 @@
       </c>
       <c r="J202" s="2"/>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>41943</v>
       </c>
@@ -5881,7 +5882,7 @@
       </c>
       <c r="J203" s="2"/>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>41971</v>
       </c>
@@ -5908,7 +5909,7 @@
       </c>
       <c r="J204" s="2"/>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>42004</v>
       </c>
@@ -5935,7 +5936,7 @@
       </c>
       <c r="J205" s="2"/>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>42034</v>
       </c>
@@ -5962,7 +5963,7 @@
       </c>
       <c r="J206" s="2"/>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>42062</v>
       </c>
@@ -5989,7 +5990,7 @@
       </c>
       <c r="J207" s="2"/>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>42094</v>
       </c>
@@ -6016,7 +6017,7 @@
       </c>
       <c r="J208" s="2"/>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>42124</v>
       </c>
@@ -6043,7 +6044,7 @@
       </c>
       <c r="J209" s="2"/>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>42153</v>
       </c>
@@ -6070,7 +6071,7 @@
       </c>
       <c r="J210" s="2"/>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>42185</v>
       </c>
@@ -6097,7 +6098,7 @@
       </c>
       <c r="J211" s="2"/>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>42216</v>
       </c>
@@ -6124,7 +6125,7 @@
       </c>
       <c r="J212" s="2"/>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>42247</v>
       </c>
@@ -6151,7 +6152,7 @@
       </c>
       <c r="J213" s="2"/>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>42277</v>
       </c>
@@ -6178,7 +6179,7 @@
       </c>
       <c r="J214" s="2"/>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>42307</v>
       </c>
@@ -6205,7 +6206,7 @@
       </c>
       <c r="J215" s="2"/>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>42338</v>
       </c>
@@ -6232,7 +6233,7 @@
       </c>
       <c r="J216" s="2"/>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>42369</v>
       </c>
@@ -6259,7 +6260,7 @@
       </c>
       <c r="J217" s="2"/>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>42398</v>
       </c>
@@ -6286,7 +6287,7 @@
       </c>
       <c r="J218" s="2"/>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>42429</v>
       </c>
@@ -6313,7 +6314,7 @@
       </c>
       <c r="J219" s="2"/>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>42460</v>
       </c>
@@ -6340,7 +6341,7 @@
       </c>
       <c r="J220" s="2"/>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>42489</v>
       </c>
@@ -6367,7 +6368,7 @@
       </c>
       <c r="J221" s="2"/>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>42521</v>
       </c>
@@ -6394,7 +6395,7 @@
       </c>
       <c r="J222" s="2"/>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>42551</v>
       </c>
@@ -6421,7 +6422,7 @@
       </c>
       <c r="J223" s="2"/>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>42580</v>
       </c>
@@ -6448,7 +6449,7 @@
       </c>
       <c r="J224" s="2"/>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>42613</v>
       </c>
@@ -6475,7 +6476,7 @@
       </c>
       <c r="J225" s="2"/>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>42643</v>
       </c>
@@ -6502,7 +6503,7 @@
       </c>
       <c r="J226" s="2"/>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>42674</v>
       </c>
@@ -6529,7 +6530,7 @@
       </c>
       <c r="J227" s="2"/>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>42704</v>
       </c>
@@ -6556,7 +6557,7 @@
       </c>
       <c r="J228" s="2"/>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>42734</v>
       </c>
@@ -6583,7 +6584,7 @@
       </c>
       <c r="J229" s="2"/>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>42766</v>
       </c>
@@ -6610,7 +6611,7 @@
       </c>
       <c r="J230" s="2"/>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>42794</v>
       </c>
@@ -6637,7 +6638,7 @@
       </c>
       <c r="J231" s="2"/>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>42825</v>
       </c>
@@ -6664,7 +6665,7 @@
       </c>
       <c r="J232" s="2"/>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>42853</v>
       </c>
@@ -6691,7 +6692,7 @@
       </c>
       <c r="J233" s="2"/>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>42886</v>
       </c>
@@ -6718,7 +6719,7 @@
       </c>
       <c r="J234" s="2"/>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>42916</v>
       </c>
@@ -6745,7 +6746,7 @@
       </c>
       <c r="J235" s="2"/>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>42947</v>
       </c>
@@ -6772,7 +6773,7 @@
       </c>
       <c r="J236" s="2"/>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>42978</v>
       </c>
@@ -6799,7 +6800,7 @@
       </c>
       <c r="J237" s="2"/>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>43007</v>
       </c>
@@ -6826,7 +6827,7 @@
       </c>
       <c r="J238" s="2"/>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>43039</v>
       </c>
@@ -6853,7 +6854,7 @@
       </c>
       <c r="J239" s="2"/>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>43069</v>
       </c>
@@ -6880,7 +6881,7 @@
       </c>
       <c r="J240" s="2"/>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>43098</v>
       </c>
@@ -6907,7 +6908,7 @@
       </c>
       <c r="J241" s="2"/>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>43131</v>
       </c>
@@ -6934,7 +6935,7 @@
       </c>
       <c r="J242" s="2"/>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>43159</v>
       </c>
@@ -6961,7 +6962,7 @@
       </c>
       <c r="J243" s="2"/>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>43189</v>
       </c>
@@ -6988,7 +6989,7 @@
       </c>
       <c r="J244" s="2"/>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>43220</v>
       </c>
@@ -7015,7 +7016,7 @@
       </c>
       <c r="J245" s="2"/>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>43251</v>
       </c>
@@ -7042,7 +7043,7 @@
       </c>
       <c r="J246" s="2"/>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>43280</v>
       </c>
@@ -7069,7 +7070,7 @@
       </c>
       <c r="J247" s="2"/>
     </row>
-    <row r="248" spans="1:10">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>43312</v>
       </c>
@@ -7096,7 +7097,7 @@
       </c>
       <c r="J248" s="2"/>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>43343</v>
       </c>
@@ -7123,7 +7124,7 @@
       </c>
       <c r="J249" s="2"/>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>43371</v>
       </c>
@@ -7150,7 +7151,7 @@
       </c>
       <c r="J250" s="2"/>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>43404</v>
       </c>
@@ -7177,7 +7178,7 @@
       </c>
       <c r="J251" s="2"/>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>43434</v>
       </c>
@@ -7204,7 +7205,7 @@
       </c>
       <c r="J252" s="2"/>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>43465</v>
       </c>
@@ -7231,7 +7232,7 @@
       </c>
       <c r="J253" s="2"/>
     </row>
-    <row r="254" spans="1:10">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>43496</v>
       </c>
@@ -7258,7 +7259,7 @@
       </c>
       <c r="J254" s="2"/>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>43524</v>
       </c>
@@ -7285,7 +7286,7 @@
       </c>
       <c r="J255" s="2"/>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>43553</v>
       </c>
@@ -7312,7 +7313,7 @@
       </c>
       <c r="J256" s="2"/>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>43585</v>
       </c>
@@ -7339,7 +7340,7 @@
       </c>
       <c r="J257" s="2"/>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>43616</v>
       </c>
@@ -7366,7 +7367,7 @@
       </c>
       <c r="J258" s="2"/>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>43644</v>
       </c>
@@ -7393,7 +7394,7 @@
       </c>
       <c r="J259" s="2"/>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>43677</v>
       </c>
@@ -7420,7 +7421,7 @@
       </c>
       <c r="J260" s="2"/>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>43707</v>
       </c>
@@ -7447,7 +7448,7 @@
       </c>
       <c r="J261" s="2"/>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>43738</v>
       </c>
@@ -7474,7 +7475,7 @@
       </c>
       <c r="J262" s="2"/>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>43769</v>
       </c>
@@ -7501,7 +7502,7 @@
       </c>
       <c r="J263" s="2"/>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>43798</v>
       </c>
@@ -7528,7 +7529,7 @@
       </c>
       <c r="J264" s="2"/>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>43830</v>
       </c>
@@ -7555,7 +7556,7 @@
       </c>
       <c r="J265" s="2"/>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>43861</v>
       </c>
@@ -7582,7 +7583,7 @@
       </c>
       <c r="J266" s="2"/>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>43889</v>
       </c>
@@ -7609,7 +7610,7 @@
       </c>
       <c r="J267" s="2"/>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>43921</v>
       </c>
@@ -7636,7 +7637,7 @@
       </c>
       <c r="J268" s="2"/>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>43951</v>
       </c>
@@ -7663,7 +7664,7 @@
       </c>
       <c r="J269" s="2"/>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>43980</v>
       </c>
@@ -7690,7 +7691,7 @@
       </c>
       <c r="J270" s="2"/>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>44012</v>
       </c>
@@ -7717,7 +7718,7 @@
       </c>
       <c r="J271" s="2"/>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>44043</v>
       </c>
@@ -7744,7 +7745,7 @@
       </c>
       <c r="J272" s="2"/>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>44074</v>
       </c>
@@ -7771,7 +7772,7 @@
       </c>
       <c r="J273" s="2"/>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>44104</v>
       </c>
@@ -7798,7 +7799,7 @@
       </c>
       <c r="J274" s="2"/>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>44134</v>
       </c>
@@ -7825,7 +7826,7 @@
       </c>
       <c r="J275" s="2"/>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>44165</v>
       </c>
@@ -7852,7 +7853,7 @@
       </c>
       <c r="J276" s="2"/>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>44196</v>
       </c>
@@ -7879,7 +7880,7 @@
       </c>
       <c r="J277" s="2"/>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>44225</v>
       </c>
@@ -7906,7 +7907,7 @@
       </c>
       <c r="J278" s="2"/>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>44253</v>
       </c>
@@ -7933,7 +7934,7 @@
       </c>
       <c r="J279" s="2"/>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>44286</v>
       </c>
@@ -7960,7 +7961,7 @@
       </c>
       <c r="J280" s="2"/>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>44316</v>
       </c>
@@ -7987,7 +7988,7 @@
       </c>
       <c r="J281" s="2"/>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>44347</v>
       </c>
@@ -8014,7 +8015,7 @@
       </c>
       <c r="J282" s="2"/>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>44377</v>
       </c>
@@ -8041,7 +8042,7 @@
       </c>
       <c r="J283" s="2"/>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>44407</v>
       </c>
@@ -8068,7 +8069,7 @@
       </c>
       <c r="J284" s="2"/>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>44439</v>
       </c>
@@ -8095,7 +8096,7 @@
       </c>
       <c r="J285" s="2"/>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>44469</v>
       </c>
@@ -8122,7 +8123,7 @@
       </c>
       <c r="J286" s="2"/>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>44498</v>
       </c>
@@ -8149,7 +8150,7 @@
       </c>
       <c r="J287" s="2"/>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>44530</v>
       </c>
@@ -8176,7 +8177,7 @@
       </c>
       <c r="J288" s="2"/>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>44561</v>
       </c>
@@ -8203,7 +8204,7 @@
       </c>
       <c r="J289" s="2"/>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>44592</v>
       </c>
@@ -8230,7 +8231,7 @@
       </c>
       <c r="J290" s="2"/>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>44620</v>
       </c>
@@ -8257,7 +8258,7 @@
       </c>
       <c r="J291" s="2"/>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>44651</v>
       </c>
@@ -8284,7 +8285,7 @@
       </c>
       <c r="J292" s="2"/>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>44680</v>
       </c>
@@ -8311,7 +8312,7 @@
       </c>
       <c r="J293" s="2"/>
     </row>
-    <row r="294" spans="1:10">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>44712</v>
       </c>
@@ -8338,7 +8339,7 @@
       </c>
       <c r="J294" s="2"/>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>44742</v>
       </c>
@@ -8365,7 +8366,7 @@
       </c>
       <c r="J295" s="2"/>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>44771</v>
       </c>
@@ -8392,7 +8393,7 @@
       </c>
       <c r="J296" s="2"/>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>44804</v>
       </c>
@@ -8419,7 +8420,7 @@
       </c>
       <c r="J297" s="2"/>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>44834</v>
       </c>
@@ -8446,7 +8447,7 @@
       </c>
       <c r="J298" s="2"/>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>44865</v>
       </c>
@@ -8473,7 +8474,7 @@
       </c>
       <c r="J299" s="2"/>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>44895</v>
       </c>
@@ -8500,7 +8501,7 @@
       </c>
       <c r="J300" s="2"/>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>44925</v>
       </c>
@@ -8527,7 +8528,7 @@
       </c>
       <c r="J301" s="2"/>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>44957</v>
       </c>
@@ -8554,7 +8555,7 @@
       </c>
       <c r="J302" s="2"/>
     </row>
-    <row r="303" spans="1:10">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>44985</v>
       </c>
@@ -8581,7 +8582,7 @@
       </c>
       <c r="J303" s="2"/>
     </row>
-    <row r="304" spans="1:10">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>45016</v>
       </c>
@@ -8608,7 +8609,7 @@
       </c>
       <c r="J304" s="2"/>
     </row>
-    <row r="305" spans="1:10">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>45044</v>
       </c>
@@ -8635,7 +8636,7 @@
       </c>
       <c r="J305" s="2"/>
     </row>
-    <row r="306" spans="1:10">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>45077</v>
       </c>
@@ -8662,7 +8663,7 @@
       </c>
       <c r="J306" s="2"/>
     </row>
-    <row r="307" spans="1:10">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>45107</v>
       </c>
@@ -8689,7 +8690,7 @@
       </c>
       <c r="J307" s="2"/>
     </row>
-    <row r="308" spans="1:10">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>45138</v>
       </c>
@@ -8716,7 +8717,7 @@
       </c>
       <c r="J308" s="2"/>
     </row>
-    <row r="309" spans="1:10">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>45169</v>
       </c>
@@ -8743,7 +8744,7 @@
       </c>
       <c r="J309" s="2"/>
     </row>
-    <row r="310" spans="1:10">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>45198</v>
       </c>
@@ -8770,7 +8771,7 @@
       </c>
       <c r="J310" s="2"/>
     </row>
-    <row r="311" spans="1:10">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>45230</v>
       </c>
@@ -8797,7 +8798,7 @@
       </c>
       <c r="J311" s="2"/>
     </row>
-    <row r="312" spans="1:10">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>45260</v>
       </c>
@@ -8824,7 +8825,7 @@
       </c>
       <c r="J312" s="2"/>
     </row>
-    <row r="313" spans="1:10">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>45289</v>
       </c>
@@ -8851,7 +8852,7 @@
       </c>
       <c r="J313" s="2"/>
     </row>
-    <row r="314" spans="1:10">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>45322</v>
       </c>
@@ -8878,7 +8879,7 @@
       </c>
       <c r="J314" s="2"/>
     </row>
-    <row r="315" spans="1:10">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>45351</v>
       </c>
@@ -8905,7 +8906,7 @@
       </c>
       <c r="J315" s="2"/>
     </row>
-    <row r="316" spans="1:10">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>45380</v>
       </c>
@@ -8932,7 +8933,7 @@
       </c>
       <c r="J316" s="2"/>
     </row>
-    <row r="317" spans="1:10">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>45412</v>
       </c>
@@ -8959,7 +8960,7 @@
       </c>
       <c r="J317" s="2"/>
     </row>
-    <row r="318" spans="1:10">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>45443</v>
       </c>
@@ -8986,7 +8987,7 @@
       </c>
       <c r="J318" s="2"/>
     </row>
-    <row r="319" spans="1:10">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>45471</v>
       </c>
@@ -9013,7 +9014,7 @@
       </c>
       <c r="J319" s="2"/>
     </row>
-    <row r="320" spans="1:10">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>45504</v>
       </c>
@@ -9040,7 +9041,7 @@
       </c>
       <c r="J320" s="2"/>
     </row>
-    <row r="321" spans="1:10">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>45534</v>
       </c>
@@ -9067,7 +9068,7 @@
       </c>
       <c r="J321" s="2"/>
     </row>
-    <row r="322" spans="1:10">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>45565</v>
       </c>
@@ -9094,7 +9095,7 @@
       </c>
       <c r="J322" s="2"/>
     </row>
-    <row r="323" spans="1:10">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>45596</v>
       </c>
@@ -9121,7 +9122,7 @@
       </c>
       <c r="J323" s="2"/>
     </row>
-    <row r="324" spans="1:10">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>45625</v>
       </c>
@@ -9148,7 +9149,7 @@
       </c>
       <c r="J324" s="2"/>
     </row>
-    <row r="325" spans="1:10">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>45657</v>
       </c>
@@ -9175,7 +9176,7 @@
       </c>
       <c r="J325" s="2"/>
     </row>
-    <row r="326" spans="1:10">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>45688</v>
       </c>
@@ -9202,7 +9203,7 @@
       </c>
       <c r="J326" s="2"/>
     </row>
-    <row r="327" spans="1:10">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>45716</v>
       </c>
@@ -9229,7 +9230,7 @@
       </c>
       <c r="J327" s="2"/>
     </row>
-    <row r="328" spans="1:10">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>45747</v>
       </c>
@@ -9256,7 +9257,7 @@
       </c>
       <c r="J328" s="2"/>
     </row>
-    <row r="329" spans="1:10">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>45777</v>
       </c>
@@ -9283,7 +9284,7 @@
       </c>
       <c r="J329" s="2"/>
     </row>
-    <row r="330" spans="1:10">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>45807</v>
       </c>
@@ -9310,7 +9311,7 @@
       </c>
       <c r="J330" s="2"/>
     </row>
-    <row r="331" spans="1:10">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>45838</v>
       </c>
@@ -9337,7 +9338,7 @@
       </c>
       <c r="J331" s="2"/>
     </row>
-    <row r="332" spans="1:10">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>45869</v>
       </c>
@@ -9364,7 +9365,7 @@
       </c>
       <c r="J332" s="2"/>
     </row>
-    <row r="333" spans="1:10">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>45898</v>
       </c>
@@ -9391,7 +9392,7 @@
       </c>
       <c r="J333" s="2"/>
     </row>
-    <row r="334" spans="1:10">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>45930</v>
       </c>
@@ -9418,7 +9419,7 @@
       </c>
       <c r="J334" s="2"/>
     </row>
-    <row r="335" spans="1:10">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>45961</v>
       </c>
@@ -9445,7 +9446,7 @@
       </c>
       <c r="J335" s="2"/>
     </row>
-    <row r="336" spans="1:10">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>45989</v>
       </c>
@@ -9478,15 +9479,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100958F3DD216C04B45B375149FC6D7031B" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a97155ece4e73437d6ac9e8c2b521dba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="63fe9c16-2f69-4d2d-9e53-848c714d6ac9" xmlns:ns3="d1f15cdc-886a-4af0-9db5-f84c8d88527b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="18d81164747ea7b7c52960c73b4ce974" ns2:_="" ns3:_="">
     <xsd:import namespace="63fe9c16-2f69-4d2d-9e53-848c714d6ac9"/>
@@ -9675,6 +9667,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9687,13 +9688,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E63F536-D7E3-4CC3-870B-6D7E5A7B79C4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6089636E-7782-49FC-9DF4-B7AC88FDBE7B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="63fe9c16-2f69-4d2d-9e53-848c714d6ac9"/>
+    <ds:schemaRef ds:uri="d1f15cdc-886a-4af0-9db5-f84c8d88527b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6089636E-7782-49FC-9DF4-B7AC88FDBE7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E63F536-D7E3-4CC3-870B-6D7E5A7B79C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1417BA03-8D7F-4250-AC1D-36B9395C892F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1417BA03-8D7F-4250-AC1D-36B9395C892F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d1f15cdc-886a-4af0-9db5-f84c8d88527b"/>
+    <ds:schemaRef ds:uri="63fe9c16-2f69-4d2d-9e53-848c714d6ac9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>